--- a/Faktury i cenniki/Flos/cennik 2021s.xlsx
+++ b/Faktury i cenniki/Flos/cennik 2021s.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projekty\02. NaturalnieApp\NaturalnieApp\Faktury i cenniki\Flos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D53958-1300-49BD-80B9-EE449CD99F5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF99507-ADFF-4AE2-8FA5-BD6870563C35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{DBF1A7F8-AC90-465D-A45E-CA32E5F1D597}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{DBF1A7F8-AC90-465D-A45E-CA32E5F1D597}"/>
   </bookViews>
   <sheets>
     <sheet name="Produkty lecznicze" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1391,7 +1390,7 @@
   <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B104" sqref="B104"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3720,8 +3719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50C647F9-8A76-4981-99FA-F48089C21467}">
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5398,8 +5397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D3D7BB-88F2-4F2D-9EBE-6B97AAE33940}">
   <dimension ref="A1:G84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7859,8 +7858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D626ED-8868-48C5-B5B6-CCB589952DC4}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
